--- a/julia/Resolve_MILP/all_instances_result_plant_Zt.xlsx
+++ b/julia/Resolve_MILP/all_instances_result_plant_Zt.xlsx
@@ -545,10 +545,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>21363.76</v>
+        <v>15460.0</v>
       </c>
       <c r="C2">
-        <v>21363.76</v>
+        <v>15460.0</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.0058</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -565,10 +565,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>28156.6</v>
+        <v>20440.0</v>
       </c>
       <c r="C3">
-        <v>28156.6</v>
+        <v>20440.0</v>
       </c>
       <c r="D3">
         <v>0.0</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.0065</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -585,10 +585,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>27656.0</v>
+        <v>19552.0</v>
       </c>
       <c r="C4">
-        <v>27656.0</v>
+        <v>19552.0</v>
       </c>
       <c r="D4">
         <v>0.0</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0039</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -605,10 +605,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>25158.68</v>
+        <v>18307.0</v>
       </c>
       <c r="C5">
-        <v>25158.68</v>
+        <v>18307.0</v>
       </c>
       <c r="D5">
         <v>0.0</v>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0047</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -625,10 +625,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>27379.8</v>
+        <v>20538.4</v>
       </c>
       <c r="C6">
-        <v>27379.8</v>
+        <v>20538.4</v>
       </c>
       <c r="D6">
         <v>0.0</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.0111</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -645,10 +645,10 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>25199.64</v>
+        <v>17449.0</v>
       </c>
       <c r="C7">
-        <v>25199.64</v>
+        <v>17449.0</v>
       </c>
       <c r="D7">
         <v>0.0</v>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.0092</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -665,10 +665,10 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>26185.08</v>
+        <v>18948.48</v>
       </c>
       <c r="C8">
-        <v>26185.08</v>
+        <v>18948.48</v>
       </c>
       <c r="D8">
         <v>0.0</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.0058</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -685,10 +685,10 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>30188.44</v>
+        <v>21885.0</v>
       </c>
       <c r="C9">
-        <v>30188.44</v>
+        <v>21885.0</v>
       </c>
       <c r="D9">
         <v>0.0</v>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.0066</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -705,10 +705,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>29585.84</v>
+        <v>22656.4</v>
       </c>
       <c r="C10">
-        <v>29585.84</v>
+        <v>22656.4</v>
       </c>
       <c r="D10">
         <v>0.0</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.0049</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -725,10 +725,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>26293.36</v>
+        <v>19269.88</v>
       </c>
       <c r="C11">
-        <v>26293.36</v>
+        <v>19269.88</v>
       </c>
       <c r="D11">
         <v>0.0</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.0039</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -745,19 +745,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>49137.14</v>
+        <v>34436.85</v>
       </c>
       <c r="C12">
-        <v>49132.68</v>
+        <v>34436.85</v>
       </c>
       <c r="D12">
-        <v>0.0091</v>
+        <v>0.0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F12">
-        <v>0.0134</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -765,19 +765,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>54398.92</v>
+        <v>38259.34</v>
       </c>
       <c r="C13">
-        <v>54398.92</v>
+        <v>38259.34</v>
       </c>
       <c r="D13">
         <v>0.0</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>493</v>
       </c>
       <c r="F13">
-        <v>0.0644</v>
+        <v>0.1232</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -785,19 +785,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>58050.0</v>
+        <v>41255.23</v>
       </c>
       <c r="C14">
-        <v>58050.0</v>
+        <v>41255.23</v>
       </c>
       <c r="D14">
         <v>0.0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>0.0249</v>
+        <v>0.0763</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -805,19 +805,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>52304.08</v>
+        <v>35847.0</v>
       </c>
       <c r="C15">
-        <v>52304.08</v>
+        <v>35847.0</v>
       </c>
       <c r="D15">
         <v>0.0</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>0.0572</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -825,19 +825,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>53194.81</v>
+        <v>39499.0</v>
       </c>
       <c r="C16">
-        <v>53194.81</v>
+        <v>39499.0</v>
       </c>
       <c r="D16">
         <v>0.0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F16">
-        <v>0.0267</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -845,19 +845,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>53906.43</v>
+        <v>37237.66</v>
       </c>
       <c r="C17">
-        <v>53906.43</v>
+        <v>37237.66</v>
       </c>
       <c r="D17">
         <v>0.0</v>
       </c>
       <c r="E17">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="F17">
-        <v>0.0769</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -865,19 +865,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>50556.52</v>
+        <v>36087.56</v>
       </c>
       <c r="C18">
-        <v>50556.52</v>
+        <v>36087.56</v>
       </c>
       <c r="D18">
         <v>0.0</v>
       </c>
       <c r="E18">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="F18">
-        <v>0.0652</v>
+        <v>0.0777</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -885,19 +885,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>51167.0</v>
+        <v>35852.42</v>
       </c>
       <c r="C19">
-        <v>51167.0</v>
+        <v>35852.42</v>
       </c>
       <c r="D19">
         <v>0.0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>1409</v>
       </c>
       <c r="F19">
-        <v>0.0273</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -905,19 +905,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>50489.82</v>
+        <v>36894.1</v>
       </c>
       <c r="C20">
-        <v>50489.82</v>
+        <v>36894.1</v>
       </c>
       <c r="D20">
         <v>0.0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="F20">
-        <v>0.0308</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -925,19 +925,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>58559.0</v>
+        <v>41932.44</v>
       </c>
       <c r="C21">
-        <v>58555.27</v>
+        <v>41932.44</v>
       </c>
       <c r="D21">
-        <v>0.0064</v>
+        <v>0.0</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="F21">
-        <v>0.0475</v>
+        <v>0.0733</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -945,19 +945,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>92398.04</v>
+        <v>65821.0</v>
       </c>
       <c r="C22">
-        <v>92395.68</v>
+        <v>65814.67</v>
       </c>
       <c r="D22">
-        <v>0.0026</v>
+        <v>0.0096</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.0044</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -965,10 +965,10 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>99874.0</v>
+        <v>71523.0</v>
       </c>
       <c r="C23">
-        <v>99874.0</v>
+        <v>71523.0</v>
       </c>
       <c r="D23">
         <v>0.0</v>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.0036</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -985,19 +985,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>101782.0</v>
+        <v>72914.0</v>
       </c>
       <c r="C24">
-        <v>101773.16</v>
+        <v>72914.0</v>
       </c>
       <c r="D24">
-        <v>0.0087</v>
+        <v>0.0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.0103</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1005,19 +1005,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>110376.08</v>
+        <v>77234.8</v>
       </c>
       <c r="C25">
-        <v>110376.08</v>
+        <v>77234.8</v>
       </c>
       <c r="D25">
         <v>0.0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>830</v>
       </c>
       <c r="F25">
-        <v>0.019</v>
+        <v>0.1335</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1025,10 +1025,10 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>90027.0</v>
+        <v>64474.0</v>
       </c>
       <c r="C26">
-        <v>90027.0</v>
+        <v>64474.0</v>
       </c>
       <c r="D26">
         <v>0.0</v>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.0038</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1045,19 +1045,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>105071.0</v>
+        <v>74472.0</v>
       </c>
       <c r="C27">
-        <v>105071.0</v>
+        <v>74469.22</v>
       </c>
       <c r="D27">
-        <v>0.0</v>
+        <v>0.0037</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.0045</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1065,10 +1065,10 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>91576.0</v>
+        <v>64012.0</v>
       </c>
       <c r="C28">
-        <v>91576.0</v>
+        <v>64012.0</v>
       </c>
       <c r="D28">
         <v>0.0</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.0083</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1085,19 +1085,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>95640.49</v>
+        <v>67394.0</v>
       </c>
       <c r="C29">
-        <v>95634.0</v>
+        <v>67394.0</v>
       </c>
       <c r="D29">
-        <v>0.0068</v>
+        <v>0.0</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.0099</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1105,10 +1105,10 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>95531.0</v>
+        <v>66733.0</v>
       </c>
       <c r="C30">
-        <v>95531.0</v>
+        <v>66733.0</v>
       </c>
       <c r="D30">
         <v>0.0</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.0098</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1125,19 +1125,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>97464.24</v>
+        <v>69388.0</v>
       </c>
       <c r="C31">
-        <v>97460.71</v>
+        <v>69388.0</v>
       </c>
       <c r="D31">
-        <v>0.0036</v>
+        <v>0.0</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.0086</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1145,19 +1145,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>192394.24</v>
+        <v>131695.0</v>
       </c>
       <c r="C32">
-        <v>192384.0</v>
+        <v>131695.0</v>
       </c>
       <c r="D32">
-        <v>0.0053</v>
+        <v>0.0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2313</v>
       </c>
       <c r="F32">
-        <v>0.0593</v>
+        <v>0.4936</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1165,19 +1165,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>189206.2</v>
+        <v>132328.0</v>
       </c>
       <c r="C33">
-        <v>189188.21</v>
+        <v>132328.0</v>
       </c>
       <c r="D33">
-        <v>0.0095</v>
+        <v>0.0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="F33">
-        <v>0.0773</v>
+        <v>0.1483</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1185,19 +1185,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>191804.65</v>
+        <v>132119.0</v>
       </c>
       <c r="C34">
-        <v>191791.28</v>
+        <v>132108.77</v>
       </c>
       <c r="D34">
-        <v>0.007</v>
+        <v>0.0077</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="F34">
-        <v>0.0698</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1205,19 +1205,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>190655.0</v>
+        <v>130755.0</v>
       </c>
       <c r="C35">
-        <v>190638.0</v>
+        <v>130755.0</v>
       </c>
       <c r="D35">
-        <v>0.0089</v>
+        <v>0.0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>411</v>
       </c>
       <c r="F35">
-        <v>0.0623</v>
+        <v>0.2433</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1225,19 +1225,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>183378.0</v>
+        <v>126487.0</v>
       </c>
       <c r="C36">
-        <v>183373.2</v>
+        <v>126475.46</v>
       </c>
       <c r="D36">
-        <v>0.0026</v>
+        <v>0.0091</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0.042</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1245,19 +1245,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>190872.0</v>
+        <v>131454.76</v>
       </c>
       <c r="C37">
-        <v>190854.33</v>
+        <v>131454.76</v>
       </c>
       <c r="D37">
-        <v>0.0093</v>
+        <v>0.0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>443</v>
       </c>
       <c r="F37">
-        <v>0.0368</v>
+        <v>0.2439</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1265,19 +1265,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>197780.61</v>
+        <v>135600.0</v>
       </c>
       <c r="C38">
-        <v>197767.15</v>
+        <v>135591.15</v>
       </c>
       <c r="D38">
-        <v>0.0068</v>
+        <v>0.0065</v>
       </c>
       <c r="E38">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.2328</v>
+        <v>0.2045</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1285,19 +1285,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>187880.38</v>
+        <v>129495.0</v>
       </c>
       <c r="C39">
-        <v>187866.22</v>
+        <v>129495.0</v>
       </c>
       <c r="D39">
-        <v>0.0075</v>
+        <v>0.0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F39">
-        <v>0.0491</v>
+        <v>0.2383</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1305,19 +1305,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>192504.71</v>
+        <v>132536.0</v>
       </c>
       <c r="C40">
-        <v>192489.89</v>
+        <v>132536.0</v>
       </c>
       <c r="D40">
-        <v>0.0077</v>
+        <v>0.0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F40">
-        <v>0.0747</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1325,19 +1325,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>191682.0</v>
+        <v>130459.41</v>
       </c>
       <c r="C41">
-        <v>191682.0</v>
+        <v>130447.86</v>
       </c>
       <c r="D41">
-        <v>0.0</v>
+        <v>0.0089</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0.0695</v>
+        <v>0.0808</v>
       </c>
     </row>
   </sheetData>
